--- a/Lista.xlsx
+++ b/Lista.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="84">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>17/Octubre</t>
+  </si>
+  <si>
+    <t>22/Octubre</t>
   </si>
 </sst>
 </file>
@@ -302,11 +305,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -332,9 +336,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H38" totalsRowShown="0">
-  <autoFilter ref="A1:H38"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I38" totalsRowShown="0">
+  <autoFilter ref="A1:I38"/>
+  <tableColumns count="9">
     <tableColumn id="1" name="MATRICULA"/>
     <tableColumn id="2" name="NOMBRE_ESTUDIANTE"/>
     <tableColumn id="3" name="COD"/>
@@ -343,6 +347,7 @@
     <tableColumn id="6" name="10/Octubre" dataDxfId="0"/>
     <tableColumn id="7" name="15/Octubre"/>
     <tableColumn id="8" name="17/Octubre"/>
+    <tableColumn id="9" name="22/Octubre"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -633,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -647,7 +652,7 @@
     <col min="5" max="5" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -672,8 +677,11 @@
       <c r="H1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -692,8 +700,11 @@
       <c r="H2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -715,8 +726,11 @@
       <c r="H3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -738,8 +752,11 @@
       <c r="H4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -761,8 +778,11 @@
       <c r="H5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -784,8 +804,11 @@
       <c r="H6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -807,8 +830,11 @@
       <c r="H7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -830,8 +856,11 @@
       <c r="H8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -853,8 +882,11 @@
       <c r="H9" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -876,8 +908,11 @@
       <c r="H10" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -899,8 +934,11 @@
       <c r="H11" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -922,8 +960,11 @@
       <c r="H12" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -945,8 +986,11 @@
       <c r="H13" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -968,8 +1012,11 @@
       <c r="H14" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -991,8 +1038,11 @@
       <c r="H15" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1014,8 +1064,11 @@
       <c r="H16" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1037,8 +1090,11 @@
       <c r="H17" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1060,8 +1116,11 @@
       <c r="H18" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1083,8 +1142,11 @@
       <c r="H19" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1106,8 +1168,11 @@
       <c r="H20" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1129,8 +1194,11 @@
       <c r="H21" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -1152,8 +1220,11 @@
       <c r="H22" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1175,8 +1246,11 @@
       <c r="H23" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1198,8 +1272,11 @@
       <c r="H24" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -1218,8 +1295,11 @@
       <c r="H25" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -1241,8 +1321,11 @@
       <c r="H26" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -1264,8 +1347,11 @@
       <c r="H27" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -1287,8 +1373,11 @@
       <c r="H28" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -1310,8 +1399,11 @@
       <c r="H29" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -1333,8 +1425,11 @@
       <c r="H30" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -1356,8 +1451,11 @@
       <c r="H31" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -1376,8 +1474,11 @@
       <c r="H32" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -1399,8 +1500,11 @@
       <c r="H33" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -1422,8 +1526,11 @@
       <c r="H34" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -1442,8 +1549,11 @@
       <c r="H35" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -1463,8 +1573,11 @@
       <c r="H36" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -1483,8 +1596,11 @@
       <c r="H37" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>80</v>
       </c>
@@ -1495,6 +1611,9 @@
         <v>77</v>
       </c>
       <c r="H38" t="s">
+        <v>77</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>77</v>
       </c>
     </row>

--- a/Lista.xlsx
+++ b/Lista.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="85">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>22/Octubre</t>
+  </si>
+  <si>
+    <t>24/Octubre</t>
   </si>
 </sst>
 </file>
@@ -310,12 +313,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -336,18 +356,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I38" totalsRowShown="0">
-  <autoFilter ref="A1:I38"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J38" totalsRowShown="0">
+  <autoFilter ref="A1:J38"/>
+  <tableColumns count="10">
     <tableColumn id="1" name="MATRICULA"/>
     <tableColumn id="2" name="NOMBRE_ESTUDIANTE"/>
     <tableColumn id="3" name="COD"/>
-    <tableColumn id="5" name="1/Octubre"/>
-    <tableColumn id="4" name="3/Octubre" dataDxfId="1"/>
-    <tableColumn id="6" name="10/Octubre" dataDxfId="0"/>
-    <tableColumn id="7" name="15/Octubre"/>
-    <tableColumn id="8" name="17/Octubre"/>
-    <tableColumn id="9" name="22/Octubre"/>
+    <tableColumn id="5" name="1/Octubre" dataDxfId="6"/>
+    <tableColumn id="4" name="3/Octubre" dataDxfId="5"/>
+    <tableColumn id="6" name="10/Octubre" dataDxfId="4"/>
+    <tableColumn id="7" name="15/Octubre" dataDxfId="3"/>
+    <tableColumn id="8" name="17/Octubre" dataDxfId="2"/>
+    <tableColumn id="9" name="22/Octubre" dataDxfId="1"/>
+    <tableColumn id="10" name="24/Octubre" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -638,21 +659,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.08984375" customWidth="1"/>
     <col min="2" max="2" width="41.36328125" customWidth="1"/>
-    <col min="3" max="4" width="7.26953125" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="7.26953125" customWidth="1"/>
+    <col min="4" max="10" width="9.81640625" style="1" customWidth="1"/>
+    <col min="11" max="13" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -662,26 +684,29 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -697,14 +722,14 @@
       <c r="F2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -720,17 +745,20 @@
       <c r="F3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -746,17 +774,20 @@
       <c r="F4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -772,17 +803,20 @@
       <c r="F5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -798,17 +832,20 @@
       <c r="F6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -824,17 +861,20 @@
       <c r="F7" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -850,17 +890,20 @@
       <c r="F8" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -876,17 +919,20 @@
       <c r="F9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H9" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -902,17 +948,20 @@
       <c r="F10" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G10" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -928,17 +977,20 @@
       <c r="F11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G11" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" t="s">
-        <v>77</v>
-      </c>
-      <c r="I11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -954,17 +1006,20 @@
       <c r="F12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -980,17 +1035,20 @@
       <c r="F13" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G13" t="s">
-        <v>77</v>
-      </c>
-      <c r="H13" t="s">
-        <v>77</v>
-      </c>
-      <c r="I13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1006,17 +1064,20 @@
       <c r="F14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G14" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" t="s">
-        <v>77</v>
-      </c>
-      <c r="I14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1032,17 +1093,20 @@
       <c r="F15" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G15" t="s">
-        <v>77</v>
-      </c>
-      <c r="H15" t="s">
-        <v>77</v>
-      </c>
-      <c r="I15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1058,17 +1122,20 @@
       <c r="F16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G16" t="s">
-        <v>77</v>
-      </c>
-      <c r="H16" t="s">
-        <v>77</v>
-      </c>
-      <c r="I16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1084,17 +1151,20 @@
       <c r="F17" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G17" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" t="s">
-        <v>77</v>
-      </c>
-      <c r="I17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1110,17 +1180,20 @@
       <c r="F18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G18" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18" t="s">
-        <v>77</v>
-      </c>
-      <c r="I18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1136,17 +1209,20 @@
       <c r="F19" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G19" t="s">
-        <v>77</v>
-      </c>
-      <c r="H19" t="s">
-        <v>77</v>
-      </c>
-      <c r="I19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1162,17 +1238,20 @@
       <c r="F20" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G20" t="s">
-        <v>77</v>
-      </c>
-      <c r="H20" t="s">
-        <v>77</v>
-      </c>
-      <c r="I20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1188,17 +1267,20 @@
       <c r="F21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G21" t="s">
-        <v>77</v>
-      </c>
-      <c r="H21" t="s">
-        <v>77</v>
-      </c>
-      <c r="I21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -1214,17 +1296,20 @@
       <c r="F22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G22" t="s">
-        <v>77</v>
-      </c>
-      <c r="H22" t="s">
-        <v>77</v>
-      </c>
-      <c r="I22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1240,17 +1325,20 @@
       <c r="F23" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G23" t="s">
-        <v>77</v>
-      </c>
-      <c r="H23" t="s">
-        <v>77</v>
-      </c>
-      <c r="I23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1266,17 +1354,17 @@
       <c r="F24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G24" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24" t="s">
-        <v>77</v>
-      </c>
-      <c r="I24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -1289,17 +1377,20 @@
       <c r="F25" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G25" t="s">
-        <v>77</v>
-      </c>
-      <c r="H25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -1315,17 +1406,20 @@
       <c r="F26" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G26" t="s">
-        <v>77</v>
-      </c>
-      <c r="H26" t="s">
-        <v>77</v>
-      </c>
-      <c r="I26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -1341,17 +1435,20 @@
       <c r="F27" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G27" t="s">
-        <v>77</v>
-      </c>
-      <c r="H27" t="s">
-        <v>77</v>
-      </c>
-      <c r="I27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -1367,17 +1464,20 @@
       <c r="F28" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G28" t="s">
-        <v>77</v>
-      </c>
-      <c r="H28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -1393,17 +1493,20 @@
       <c r="F29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G29" t="s">
-        <v>77</v>
-      </c>
-      <c r="H29" t="s">
-        <v>77</v>
-      </c>
-      <c r="I29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -1419,17 +1522,20 @@
       <c r="F30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G30" t="s">
-        <v>77</v>
-      </c>
-      <c r="H30" t="s">
-        <v>77</v>
-      </c>
-      <c r="I30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -1445,17 +1551,20 @@
       <c r="F31" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G31" t="s">
-        <v>77</v>
-      </c>
-      <c r="H31" t="s">
-        <v>77</v>
-      </c>
-      <c r="I31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -1468,17 +1577,20 @@
       <c r="F32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G32" t="s">
-        <v>77</v>
-      </c>
-      <c r="H32" t="s">
-        <v>77</v>
-      </c>
-      <c r="I32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -1494,17 +1606,20 @@
       <c r="F33" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G33" t="s">
-        <v>77</v>
-      </c>
-      <c r="H33" t="s">
-        <v>77</v>
-      </c>
-      <c r="I33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -1520,17 +1635,20 @@
       <c r="F34" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G34" t="s">
-        <v>77</v>
-      </c>
-      <c r="H34" t="s">
-        <v>77</v>
-      </c>
-      <c r="I34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -1543,17 +1661,20 @@
       <c r="F35" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G35" t="s">
-        <v>77</v>
-      </c>
-      <c r="H35" t="s">
-        <v>77</v>
-      </c>
-      <c r="I35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -1566,18 +1687,20 @@
       <c r="E36" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="G36" t="s">
-        <v>77</v>
-      </c>
-      <c r="H36" t="s">
-        <v>77</v>
-      </c>
-      <c r="I36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -1593,27 +1716,33 @@
       <c r="F37" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H37" t="s">
-        <v>77</v>
-      </c>
-      <c r="I37" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>80</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G38" t="s">
-        <v>77</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="G38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>77</v>
       </c>
       <c r="I38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>77</v>
       </c>
     </row>

--- a/Lista.xlsx
+++ b/Lista.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="90">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -255,9 +255,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>1/Octubre</t>
-  </si>
-  <si>
     <t>10/Octubre</t>
   </si>
   <si>
@@ -274,6 +271,24 @@
   </si>
   <si>
     <t>24/Octubre</t>
+  </si>
+  <si>
+    <t>29/Octubre</t>
+  </si>
+  <si>
+    <t>31/Octubre</t>
+  </si>
+  <si>
+    <t>5/Noviembre</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>7/Noviembre</t>
+  </si>
+  <si>
+    <t>12/Noviembre</t>
   </si>
 </sst>
 </file>
@@ -320,7 +335,19 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="11">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -356,19 +383,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J38" totalsRowShown="0">
-  <autoFilter ref="A1:J38"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N38" totalsRowShown="0">
+  <autoFilter ref="A1:N38"/>
+  <tableColumns count="14">
     <tableColumn id="1" name="MATRICULA"/>
     <tableColumn id="2" name="NOMBRE_ESTUDIANTE"/>
     <tableColumn id="3" name="COD"/>
-    <tableColumn id="5" name="1/Octubre" dataDxfId="6"/>
-    <tableColumn id="4" name="3/Octubre" dataDxfId="5"/>
-    <tableColumn id="6" name="10/Octubre" dataDxfId="4"/>
-    <tableColumn id="7" name="15/Octubre" dataDxfId="3"/>
-    <tableColumn id="8" name="17/Octubre" dataDxfId="2"/>
-    <tableColumn id="9" name="22/Octubre" dataDxfId="1"/>
-    <tableColumn id="10" name="24/Octubre" dataDxfId="0"/>
+    <tableColumn id="4" name="3/Octubre" dataDxfId="10"/>
+    <tableColumn id="6" name="10/Octubre" dataDxfId="9"/>
+    <tableColumn id="7" name="15/Octubre" dataDxfId="8"/>
+    <tableColumn id="8" name="17/Octubre" dataDxfId="7"/>
+    <tableColumn id="9" name="22/Octubre" dataDxfId="6"/>
+    <tableColumn id="10" name="24/Octubre" dataDxfId="5"/>
+    <tableColumn id="11" name="29/Octubre" dataDxfId="4"/>
+    <tableColumn id="5" name="31/Octubre" dataDxfId="3"/>
+    <tableColumn id="12" name="5/Noviembre" dataDxfId="2"/>
+    <tableColumn id="13" name="7/Noviembre" dataDxfId="1"/>
+    <tableColumn id="14" name="12/Noviembre" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -659,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -670,11 +701,11 @@
     <col min="1" max="1" width="12.08984375" customWidth="1"/>
     <col min="2" max="2" width="41.36328125" customWidth="1"/>
     <col min="3" max="3" width="7.26953125" customWidth="1"/>
-    <col min="4" max="10" width="9.81640625" style="1" customWidth="1"/>
-    <col min="11" max="13" width="8.7265625" style="1"/>
+    <col min="4" max="9" width="9.81640625" style="1" customWidth="1"/>
+    <col min="10" max="12" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -685,13 +716,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>81</v>
@@ -705,8 +736,20 @@
       <c r="J1" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -716,20 +759,25 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>77</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -739,6 +787,9 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>77</v>
       </c>
@@ -757,8 +808,18 @@
       <c r="J3" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -768,6 +829,9 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>77</v>
       </c>
@@ -786,8 +850,20 @@
       <c r="J4" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -797,6 +873,9 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>77</v>
       </c>
@@ -815,8 +894,20 @@
       <c r="J5" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -826,6 +917,9 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>77</v>
       </c>
@@ -844,8 +938,20 @@
       <c r="J6" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -855,6 +961,9 @@
       <c r="C7" t="s">
         <v>5</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>77</v>
       </c>
@@ -873,8 +982,20 @@
       <c r="J7" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -884,6 +1005,9 @@
       <c r="C8" t="s">
         <v>5</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>77</v>
       </c>
@@ -902,8 +1026,20 @@
       <c r="J8" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -913,6 +1049,9 @@
       <c r="C9" t="s">
         <v>5</v>
       </c>
+      <c r="D9" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>77</v>
       </c>
@@ -931,8 +1070,18 @@
       <c r="J9" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -942,6 +1091,9 @@
       <c r="C10" t="s">
         <v>5</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>77</v>
       </c>
@@ -960,8 +1112,20 @@
       <c r="J10" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -971,6 +1135,9 @@
       <c r="C11" t="s">
         <v>5</v>
       </c>
+      <c r="D11" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E11" s="1" t="s">
         <v>77</v>
       </c>
@@ -989,8 +1156,20 @@
       <c r="J11" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1000,6 +1179,9 @@
       <c r="C12" t="s">
         <v>5</v>
       </c>
+      <c r="D12" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>77</v>
       </c>
@@ -1018,8 +1200,20 @@
       <c r="J12" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1029,6 +1223,9 @@
       <c r="C13" t="s">
         <v>5</v>
       </c>
+      <c r="D13" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E13" s="1" t="s">
         <v>77</v>
       </c>
@@ -1047,8 +1244,20 @@
       <c r="J13" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1058,6 +1267,9 @@
       <c r="C14" t="s">
         <v>5</v>
       </c>
+      <c r="D14" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E14" s="1" t="s">
         <v>77</v>
       </c>
@@ -1076,8 +1288,20 @@
       <c r="J14" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1087,6 +1311,9 @@
       <c r="C15" t="s">
         <v>5</v>
       </c>
+      <c r="D15" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E15" s="1" t="s">
         <v>77</v>
       </c>
@@ -1105,8 +1332,18 @@
       <c r="J15" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1116,6 +1353,9 @@
       <c r="C16" t="s">
         <v>5</v>
       </c>
+      <c r="D16" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E16" s="1" t="s">
         <v>77</v>
       </c>
@@ -1134,8 +1374,20 @@
       <c r="J16" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1145,6 +1397,9 @@
       <c r="C17" t="s">
         <v>5</v>
       </c>
+      <c r="D17" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E17" s="1" t="s">
         <v>77</v>
       </c>
@@ -1163,8 +1418,20 @@
       <c r="J17" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1174,6 +1441,9 @@
       <c r="C18" t="s">
         <v>5</v>
       </c>
+      <c r="D18" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E18" s="1" t="s">
         <v>77</v>
       </c>
@@ -1192,8 +1462,20 @@
       <c r="J18" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1203,6 +1485,9 @@
       <c r="C19" t="s">
         <v>5</v>
       </c>
+      <c r="D19" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E19" s="1" t="s">
         <v>77</v>
       </c>
@@ -1221,8 +1506,20 @@
       <c r="J19" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1232,6 +1529,9 @@
       <c r="C20" t="s">
         <v>5</v>
       </c>
+      <c r="D20" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E20" s="1" t="s">
         <v>77</v>
       </c>
@@ -1250,8 +1550,20 @@
       <c r="J20" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1261,6 +1573,9 @@
       <c r="C21" t="s">
         <v>5</v>
       </c>
+      <c r="D21" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E21" s="1" t="s">
         <v>77</v>
       </c>
@@ -1279,8 +1594,20 @@
       <c r="J21" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -1290,6 +1617,9 @@
       <c r="C22" t="s">
         <v>5</v>
       </c>
+      <c r="D22" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E22" s="1" t="s">
         <v>77</v>
       </c>
@@ -1308,8 +1638,20 @@
       <c r="J22" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1319,6 +1661,9 @@
       <c r="C23" t="s">
         <v>5</v>
       </c>
+      <c r="D23" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E23" s="1" t="s">
         <v>77</v>
       </c>
@@ -1337,8 +1682,20 @@
       <c r="J23" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1348,6 +1705,9 @@
       <c r="C24" t="s">
         <v>5</v>
       </c>
+      <c r="D24" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E24" s="1" t="s">
         <v>77</v>
       </c>
@@ -1360,11 +1720,21 @@
       <c r="H24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -1374,6 +1744,9 @@
       <c r="C25" t="s">
         <v>5</v>
       </c>
+      <c r="E25" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="F25" s="1" t="s">
         <v>77</v>
       </c>
@@ -1389,8 +1762,20 @@
       <c r="J25" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -1400,6 +1785,9 @@
       <c r="C26" t="s">
         <v>5</v>
       </c>
+      <c r="D26" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E26" s="1" t="s">
         <v>77</v>
       </c>
@@ -1418,8 +1806,20 @@
       <c r="J26" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -1429,6 +1829,9 @@
       <c r="C27" t="s">
         <v>5</v>
       </c>
+      <c r="D27" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E27" s="1" t="s">
         <v>77</v>
       </c>
@@ -1447,8 +1850,20 @@
       <c r="J27" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -1458,6 +1873,9 @@
       <c r="C28" t="s">
         <v>5</v>
       </c>
+      <c r="D28" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E28" s="1" t="s">
         <v>77</v>
       </c>
@@ -1476,8 +1894,20 @@
       <c r="J28" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -1487,6 +1917,9 @@
       <c r="C29" t="s">
         <v>5</v>
       </c>
+      <c r="D29" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E29" s="1" t="s">
         <v>77</v>
       </c>
@@ -1505,8 +1938,20 @@
       <c r="J29" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -1516,6 +1961,9 @@
       <c r="C30" t="s">
         <v>5</v>
       </c>
+      <c r="D30" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E30" s="1" t="s">
         <v>77</v>
       </c>
@@ -1534,8 +1982,18 @@
       <c r="J30" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -1545,6 +2003,9 @@
       <c r="C31" t="s">
         <v>5</v>
       </c>
+      <c r="D31" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E31" s="1" t="s">
         <v>77</v>
       </c>
@@ -1563,8 +2024,20 @@
       <c r="J31" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -1574,6 +2047,9 @@
       <c r="C32" t="s">
         <v>5</v>
       </c>
+      <c r="E32" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="F32" s="1" t="s">
         <v>77</v>
       </c>
@@ -1589,8 +2065,20 @@
       <c r="J32" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -1600,6 +2088,9 @@
       <c r="C33" t="s">
         <v>5</v>
       </c>
+      <c r="D33" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E33" s="1" t="s">
         <v>77</v>
       </c>
@@ -1618,8 +2109,20 @@
       <c r="J33" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -1629,6 +2132,9 @@
       <c r="C34" t="s">
         <v>5</v>
       </c>
+      <c r="D34" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E34" s="1" t="s">
         <v>77</v>
       </c>
@@ -1647,8 +2153,20 @@
       <c r="J34" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -1658,6 +2176,9 @@
       <c r="C35" t="s">
         <v>5</v>
       </c>
+      <c r="E35" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="F35" s="1" t="s">
         <v>77</v>
       </c>
@@ -1673,8 +2194,20 @@
       <c r="J35" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -1684,7 +2217,10 @@
       <c r="C36" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="D36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>77</v>
       </c>
       <c r="G36" s="1" t="s">
@@ -1696,11 +2232,20 @@
       <c r="I36" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -1710,10 +2255,13 @@
       <c r="C37" t="s">
         <v>5</v>
       </c>
+      <c r="D37" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E37" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>77</v>
       </c>
       <c r="H37" s="1" t="s">
@@ -1725,10 +2273,23 @@
       <c r="J37" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>77</v>
@@ -1736,13 +2297,22 @@
       <c r="G38" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I38" s="2" t="s">
+      <c r="H38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>77</v>
       </c>
       <c r="J38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N38" s="1" t="s">
         <v>77</v>
       </c>
     </row>

--- a/Lista.xlsx
+++ b/Lista.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="91">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>12/Noviembre</t>
+  </si>
+  <si>
+    <t>28/Noviembre</t>
   </si>
 </sst>
 </file>
@@ -335,7 +338,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -383,23 +389,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N38" totalsRowShown="0">
-  <autoFilter ref="A1:N38"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O38" totalsRowShown="0">
+  <autoFilter ref="A1:O38"/>
+  <tableColumns count="15">
     <tableColumn id="1" name="MATRICULA"/>
     <tableColumn id="2" name="NOMBRE_ESTUDIANTE"/>
     <tableColumn id="3" name="COD"/>
-    <tableColumn id="4" name="3/Octubre" dataDxfId="10"/>
-    <tableColumn id="6" name="10/Octubre" dataDxfId="9"/>
-    <tableColumn id="7" name="15/Octubre" dataDxfId="8"/>
-    <tableColumn id="8" name="17/Octubre" dataDxfId="7"/>
-    <tableColumn id="9" name="22/Octubre" dataDxfId="6"/>
-    <tableColumn id="10" name="24/Octubre" dataDxfId="5"/>
-    <tableColumn id="11" name="29/Octubre" dataDxfId="4"/>
-    <tableColumn id="5" name="31/Octubre" dataDxfId="3"/>
-    <tableColumn id="12" name="5/Noviembre" dataDxfId="2"/>
-    <tableColumn id="13" name="7/Noviembre" dataDxfId="1"/>
-    <tableColumn id="14" name="12/Noviembre" dataDxfId="0"/>
+    <tableColumn id="4" name="3/Octubre" dataDxfId="11"/>
+    <tableColumn id="6" name="10/Octubre" dataDxfId="10"/>
+    <tableColumn id="7" name="15/Octubre" dataDxfId="9"/>
+    <tableColumn id="8" name="17/Octubre" dataDxfId="8"/>
+    <tableColumn id="9" name="22/Octubre" dataDxfId="7"/>
+    <tableColumn id="10" name="24/Octubre" dataDxfId="6"/>
+    <tableColumn id="11" name="29/Octubre" dataDxfId="5"/>
+    <tableColumn id="5" name="31/Octubre" dataDxfId="4"/>
+    <tableColumn id="12" name="5/Noviembre" dataDxfId="3"/>
+    <tableColumn id="13" name="7/Noviembre" dataDxfId="2"/>
+    <tableColumn id="14" name="12/Noviembre" dataDxfId="1"/>
+    <tableColumn id="15" name="28/Noviembre" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -690,10 +697,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -705,7 +715,7 @@
     <col min="10" max="12" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -748,8 +758,11 @@
       <c r="N1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -776,8 +789,9 @@
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -818,8 +832,9 @@
       <c r="N3" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -862,8 +877,9 @@
       <c r="N4" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -906,8 +922,11 @@
       <c r="N5" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O5" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -950,8 +969,11 @@
       <c r="N6" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O6" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -994,8 +1016,11 @@
       <c r="N7" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O7" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1038,8 +1063,11 @@
       <c r="N8" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O8" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1080,8 +1108,11 @@
       <c r="N9" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O9" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1124,8 +1155,11 @@
       <c r="N10" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O10" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1168,8 +1202,11 @@
       <c r="N11" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O11" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1212,8 +1249,9 @@
       <c r="N12" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1256,8 +1294,11 @@
       <c r="N13" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O13" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1300,8 +1341,9 @@
       <c r="N14" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1342,8 +1384,11 @@
       <c r="N15" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O15" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1386,8 +1431,11 @@
       <c r="N16" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O16" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1430,8 +1478,11 @@
       <c r="N17" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O17" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1474,8 +1525,11 @@
       <c r="N18" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O18" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1518,8 +1572,11 @@
       <c r="N19" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O19" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1562,8 +1619,11 @@
       <c r="N20" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O20" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1606,8 +1666,11 @@
       <c r="N21" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O21" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -1650,8 +1713,11 @@
       <c r="N22" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O22" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1694,8 +1760,11 @@
       <c r="N23" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O23" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1733,8 +1802,11 @@
       <c r="N24" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O24" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -1774,8 +1846,11 @@
       <c r="N25" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O25" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -1818,8 +1893,11 @@
       <c r="N26" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O26" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -1862,8 +1940,11 @@
       <c r="N27" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O27" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -1906,8 +1987,9 @@
       <c r="N28" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -1950,8 +2032,9 @@
       <c r="N29" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -1992,8 +2075,11 @@
       <c r="N30" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O30" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -2036,8 +2122,11 @@
       <c r="N31" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O31" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -2077,8 +2166,11 @@
       <c r="N32" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O32" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -2121,8 +2213,11 @@
       <c r="N33" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O33" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -2165,8 +2260,11 @@
       <c r="N34" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O34" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -2206,8 +2304,11 @@
       <c r="N35" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O35" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -2244,8 +2345,11 @@
       <c r="N36" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O36" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -2283,8 +2387,11 @@
         <v>77</v>
       </c>
       <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O37" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>79</v>
       </c>
@@ -2313,6 +2420,9 @@
         <v>77</v>
       </c>
       <c r="N38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O38" s="1" t="s">
         <v>77</v>
       </c>
     </row>
